--- a/breeding_patterns - win, sum/all male, female F1 mice/SM2 - Mice_Births_By_Sex_and_Season.xlsx
+++ b/breeding_patterns - win, sum/all male, female F1 mice/SM2 - Mice_Births_By_Sex_and_Season.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">YearGroup</t>
   </si>
@@ -41,12 +41,6 @@
   </si>
   <si>
     <t xml:space="preserve">2014-2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-2022</t>
   </si>
 </sst>
 </file>
@@ -455,28 +449,6 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="n">
-        <v>291</v>
-      </c>
-      <c r="C8" t="n">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="n">
-        <v>177</v>
-      </c>
-      <c r="C9" t="n">
-        <v>207</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -568,28 +540,6 @@
         <v>417</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="n">
-        <v>256</v>
-      </c>
-      <c r="C8" t="n">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="n">
-        <v>155</v>
-      </c>
-      <c r="C9" t="n">
-        <v>149</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -681,28 +631,6 @@
         <v>761</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="n">
-        <v>547</v>
-      </c>
-      <c r="C8" t="n">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="n">
-        <v>332</v>
-      </c>
-      <c r="C9" t="n">
-        <v>356</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
